--- a/Cruz Alejo José Armando 20212.xlsx
+++ b/Cruz Alejo José Armando 20212.xlsx
@@ -2490,7 +2490,7 @@
         <v>232</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:11">
